--- a/03_Outputs/all/idx14_seguridad_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx14_seguridad_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>0.6105029148964698</v>
       </c>
+      <c r="D2">
+        <v>0.3310333456742148</v>
+      </c>
+      <c r="E2">
+        <v>33.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>0.6281153860962063</v>
       </c>
+      <c r="D3">
+        <v>0.3405833660337871</v>
+      </c>
+      <c r="E3">
+        <v>34.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>0.4732877519263805</v>
       </c>
+      <c r="D4">
+        <v>0.2566310891625909</v>
+      </c>
+      <c r="E4">
+        <v>25.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +464,12 @@
       <c r="C5">
         <v>-0.06672439246812702</v>
       </c>
+      <c r="D5">
+        <v>0.03618000559513986</v>
+      </c>
+      <c r="E5">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -451,6 +485,12 @@
       <c r="C6">
         <v>-0.06560344486656072</v>
       </c>
+      <c r="D6">
+        <v>0.03557219353426722</v>
+      </c>
+      <c r="E6">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -466,6 +506,12 @@
       <c r="C7">
         <v>0.05823388518792885</v>
       </c>
+      <c r="D7">
+        <v>0.03137076480500092</v>
+      </c>
+      <c r="E7">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +527,12 @@
       <c r="C8">
         <v>0.1346209372819184</v>
       </c>
+      <c r="D8">
+        <v>0.07252069388245538</v>
+      </c>
+      <c r="E8">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +548,12 @@
       <c r="C9">
         <v>-0.4269360511709009</v>
       </c>
+      <c r="D9">
+        <v>0.2299917033671392</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10">
         <v>-0.744198435546324</v>
       </c>
+      <c r="D10">
+        <v>0.4009018806564655</v>
+      </c>
+      <c r="E10">
+        <v>40.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -526,6 +590,12 @@
       <c r="C11">
         <v>-0.4923213529822351</v>
       </c>
+      <c r="D11">
+        <v>0.2652149572889391</v>
+      </c>
+      <c r="E11">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +611,12 @@
       <c r="C12">
         <v>-0.2234835357802966</v>
       </c>
+      <c r="D12">
+        <v>0.1291288646821643</v>
+      </c>
+      <c r="E12">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,6 +632,12 @@
       <c r="C13">
         <v>0.02427606128192732</v>
       </c>
+      <c r="D13">
+        <v>0.01402671664981907</v>
+      </c>
+      <c r="E13">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,6 +653,12 @@
       <c r="C14">
         <v>0.1995633361688087</v>
       </c>
+      <c r="D14">
+        <v>0.1153077650292632</v>
+      </c>
+      <c r="E14">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -586,6 +674,12 @@
       <c r="C15">
         <v>0.4341925678421922</v>
       </c>
+      <c r="D15">
+        <v>0.2508766166739654</v>
+      </c>
+      <c r="E15">
+        <v>25.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -601,6 +695,12 @@
       <c r="C16">
         <v>-0.8491861226913399</v>
       </c>
+      <c r="D16">
+        <v>0.4906600369647879</v>
+      </c>
+      <c r="E16">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -616,6 +716,12 @@
       <c r="C17">
         <v>-0.3747888635341832</v>
       </c>
+      <c r="D17">
+        <v>0.2003927729015441</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -631,6 +737,12 @@
       <c r="C18">
         <v>-0.2452270562690026</v>
       </c>
+      <c r="D18">
+        <v>0.1311184364786933</v>
+      </c>
+      <c r="E18">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -646,6 +758,12 @@
       <c r="C19">
         <v>0.7390977179475869</v>
       </c>
+      <c r="D19">
+        <v>0.3951820759775904</v>
+      </c>
+      <c r="E19">
+        <v>39.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -661,6 +779,12 @@
       <c r="C20">
         <v>-0.5030565909225079</v>
       </c>
+      <c r="D20">
+        <v>0.2689751884054172</v>
+      </c>
+      <c r="E20">
+        <v>26.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -676,6 +800,12 @@
       <c r="C21">
         <v>0.008101129457595373</v>
       </c>
+      <c r="D21">
+        <v>0.004331526236755041</v>
+      </c>
+      <c r="E21">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -691,6 +821,12 @@
       <c r="C22">
         <v>0.6583945796592841</v>
       </c>
+      <c r="D22">
+        <v>0.3961467088380323</v>
+      </c>
+      <c r="E22">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -706,6 +842,12 @@
       <c r="C23">
         <v>-0.7256876936512203</v>
       </c>
+      <c r="D23">
+        <v>0.436636023997892</v>
+      </c>
+      <c r="E23">
+        <v>43.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +863,12 @@
       <c r="C24">
         <v>0.08736904640039864</v>
       </c>
+      <c r="D24">
+        <v>0.0525687198150177</v>
+      </c>
+      <c r="E24">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,6 +884,12 @@
       <c r="C25">
         <v>-0.01128823902080943</v>
       </c>
+      <c r="D25">
+        <v>0.006791973802373713</v>
+      </c>
+      <c r="E25">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -750,6 +904,12 @@
       </c>
       <c r="C26">
         <v>-0.1792572847873735</v>
+      </c>
+      <c r="D26">
+        <v>0.1078565735466844</v>
+      </c>
+      <c r="E26">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
